--- a/codebook_publicv4-1.xlsx
+++ b/codebook_publicv4-1.xlsx
@@ -5,33 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\SMU\Project3final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Project3final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D292E-5257-4EF4-9B33-B15BEA836CFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15EEEC-870B-4E57-BBD8-E11F078FC4E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$K$763</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$F$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="1749">
   <si>
     <t>2015 RECS Variable and Response Codebook</t>
   </si>
@@ -5866,16 +5873,29 @@
 Some other fuel
 Not applicable</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>appliace</t>
+  </si>
+  <si>
+    <t>heatin</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="\'@\'"/>
-    <numFmt numFmtId="166" formatCode="\'@\'\,"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\'@\'"/>
+    <numFmt numFmtId="165" formatCode="\'@\'\,"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5943,6 +5963,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5991,13 +6018,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6155,18 +6183,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6218,22 +6234,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8332,6 +8362,937 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F2A3-456D-BBF3-4F1AD0DF1B2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10941130796150481"/>
+                  <c:y val="-4.9154272382618842E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet5!$A$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>appliace</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heatin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet5!$B$2:$D$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet5!$C$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet5!$B$2</c15:sqref>
+                  <c15:dLbl>
+                    <c:idx val="-1"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="9.9812992125984254E-2"/>
+                        <c:y val="1.6681977252843396E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c15:dLbl>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2A3-456D-BBF3-4F1AD0DF1B2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2123CD-8D98-4B9D-AC65-5D8258C02254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8598,9 +9559,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K765"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8616,19 +9577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
@@ -8637,12 +9598,12 @@
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
       <c r="F3" s="50"/>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -11292,7 +12253,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1384</v>
       </c>
@@ -11314,7 +12275,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="36" t="s">
         <v>1421</v>
       </c>
@@ -11336,7 +12297,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="36" t="s">
         <v>1419</v>
       </c>
@@ -11358,7 +12319,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="36" t="s">
         <v>1407</v>
       </c>
@@ -11380,7 +12341,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
         <v>1425</v>
       </c>
@@ -11402,7 +12363,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="36" t="s">
         <v>1401</v>
       </c>
@@ -11424,7 +12385,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="36" t="s">
         <v>1389</v>
       </c>
@@ -11446,7 +12407,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="36" t="s">
         <v>1405</v>
       </c>
@@ -11468,7 +12429,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="36" t="s">
         <v>1427</v>
       </c>
@@ -11490,7 +12451,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="36" t="s">
         <v>1409</v>
       </c>
@@ -11512,7 +12473,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="36" t="s">
         <v>1423</v>
       </c>
@@ -11534,7 +12495,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="36" t="s">
         <v>1399</v>
       </c>
@@ -11556,7 +12517,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="36" t="s">
         <v>1435</v>
       </c>
@@ -11578,7 +12539,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="36" t="s">
         <v>1433</v>
       </c>
@@ -11600,7 +12561,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="36" t="s">
         <v>1429</v>
       </c>
@@ -11622,7 +12583,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="36" t="s">
         <v>1411</v>
       </c>
@@ -11644,7 +12605,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="36" t="s">
         <v>1403</v>
       </c>
@@ -11666,7 +12627,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="36" t="s">
         <v>1437</v>
       </c>
@@ -11688,7 +12649,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="36" t="s">
         <v>1431</v>
       </c>
@@ -11710,7 +12671,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="36" t="s">
         <v>1393</v>
       </c>
@@ -11732,7 +12693,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="36" t="s">
         <v>1395</v>
       </c>
@@ -11754,7 +12715,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="36" t="s">
         <v>1397</v>
       </c>
@@ -11776,7 +12737,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
         <v>1387</v>
       </c>
@@ -11798,7 +12759,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="36" t="s">
         <v>1415</v>
       </c>
@@ -11820,7 +12781,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="36" t="s">
         <v>1417</v>
       </c>
@@ -11842,7 +12803,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="36" t="s">
         <v>1413</v>
       </c>
@@ -11864,7 +12825,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="36" t="s">
         <v>1391</v>
       </c>
@@ -11886,7 +12847,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1589</v>
       </c>
@@ -11908,7 +12869,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="36" t="s">
         <v>1595</v>
       </c>
@@ -11930,7 +12891,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>1591</v>
       </c>
@@ -11952,7 +12913,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="36" t="s">
         <v>1593</v>
       </c>
@@ -11974,7 +12935,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1556</v>
       </c>
@@ -11996,7 +12957,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="36" t="s">
         <v>1564</v>
       </c>
@@ -12018,7 +12979,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="36" t="s">
         <v>1562</v>
       </c>
@@ -12040,7 +13001,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="36" t="s">
         <v>1566</v>
       </c>
@@ -12062,7 +13023,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="36" t="s">
         <v>1558</v>
       </c>
@@ -12084,7 +13045,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="36" t="s">
         <v>1560</v>
       </c>
@@ -12106,7 +13067,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1511</v>
       </c>
@@ -12128,7 +13089,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="36" t="s">
         <v>1519</v>
       </c>
@@ -12150,7 +13111,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="36" t="s">
         <v>1517</v>
       </c>
@@ -12172,7 +13133,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="36" t="s">
         <v>1523</v>
       </c>
@@ -12194,7 +13155,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="36" t="s">
         <v>1525</v>
       </c>
@@ -12216,7 +13177,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="36" t="s">
         <v>1521</v>
       </c>
@@ -12238,7 +13199,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="36" t="s">
         <v>1513</v>
       </c>
@@ -12260,7 +13221,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="36" t="s">
         <v>1515</v>
       </c>
@@ -14496,7 +15457,7 @@
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="42" t="s">
         <v>1637</v>
       </c>
@@ -15184,7 +16145,7 @@
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1654</v>
       </c>
@@ -17160,7 +18121,7 @@
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1664</v>
       </c>
@@ -17414,7 +18375,7 @@
       <c r="I383" s="5"/>
       <c r="J383" s="5"/>
     </row>
-    <row r="384" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="42" t="s">
         <v>1646</v>
       </c>
@@ -18394,7 +19355,7 @@
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
     </row>
-    <row r="423" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A423" s="36" t="s">
         <v>1724</v>
       </c>
@@ -21413,7 +22374,7 @@
       <c r="I541" s="5"/>
       <c r="J541" s="5"/>
     </row>
-    <row r="542" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1721</v>
       </c>
@@ -26746,19 +27707,69 @@
       <c r="J763" s="5"/>
     </row>
     <row r="765" spans="1:10" ht="344.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A765" s="58" t="s">
+      <c r="A765" s="82" t="s">
         <v>1673</v>
       </c>
-      <c r="B765" s="58"/>
-      <c r="C765" s="58"/>
-      <c r="D765" s="58"/>
-      <c r="E765" s="59"/>
-      <c r="F765" s="58"/>
+      <c r="B765" s="82"/>
+      <c r="C765" s="82"/>
+      <c r="D765" s="82"/>
+      <c r="E765" s="83"/>
+      <c r="F765" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:K763" xr:uid="{88441F13-3D96-47E2-B032-0509063B521F}">
     <filterColumn colId="0">
       <filters>
+        <filter val="BTUEL"/>
+        <filter val="BTUELAHUCOL"/>
+        <filter val="BTUELAHUHEAT"/>
+        <filter val="BTUELCDR"/>
+        <filter val="BTUELCFAN"/>
+        <filter val="BTUELCOK"/>
+        <filter val="BTUELCOL"/>
+        <filter val="BTUELCW"/>
+        <filter val="BTUELDHUM"/>
+        <filter val="BTUELDWH"/>
+        <filter val="BTUELEVAPCOL"/>
+        <filter val="BTUELFRZ"/>
+        <filter val="BTUELHTBHEAT"/>
+        <filter val="BTUELHTBPMP"/>
+        <filter val="BTUELHUM"/>
+        <filter val="BTUELLGT"/>
+        <filter val="BTUELMICRO"/>
+        <filter val="BTUELNEC"/>
+        <filter val="BTUELPLPMP"/>
+        <filter val="BTUELRFG"/>
+        <filter val="BTUELRFG1"/>
+        <filter val="BTUELRFG2"/>
+        <filter val="BTUELSPH"/>
+        <filter val="BTUELTV1"/>
+        <filter val="BTUELTV2"/>
+        <filter val="BTUELTVREL"/>
+        <filter val="BTUELWTH"/>
+        <filter val="BTUFO"/>
+        <filter val="BTUFONEC"/>
+        <filter val="BTUFOSPH"/>
+        <filter val="BTUFOWTH"/>
+        <filter val="BTULP"/>
+        <filter val="BTULPCDR"/>
+        <filter val="BTULPCOK"/>
+        <filter val="BTULPNEC"/>
+        <filter val="BTULPSPH"/>
+        <filter val="BTULPWTH"/>
+        <filter val="BTUNG"/>
+        <filter val="BTUNGCDR"/>
+        <filter val="BTUNGCOK"/>
+        <filter val="BTUNGHTBHEAT"/>
+        <filter val="BTUNGNEC"/>
+        <filter val="BTUNGPLHEAT"/>
+        <filter val="BTUNGSPH"/>
+        <filter val="BTUNGWTH"/>
+        <filter val="ELXBTU"/>
+        <filter val="FOXBTU"/>
+        <filter val="LPXBTU"/>
+        <filter val="NGXBTU"/>
+        <filter val="PELLETBTU"/>
         <filter val="TOTALBTU"/>
         <filter val="TOTALBTUCDR"/>
         <filter val="TOTALBTUCOK"/>
@@ -26767,6 +27778,7 @@
         <filter val="TOTALBTUPL"/>
         <filter val="TOTALBTUSPH"/>
         <filter val="TOTALBTUWTH"/>
+        <filter val="WOODBTU"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -27378,53 +28390,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18DDD88-5961-425C-86D1-C4E6593C3612}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85">
+        <f>90504078+118418338+58679723+585119312</f>
+        <v>852721451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8F1116-CE21-41CF-8C6B-A1547B487ED7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="23.77734375" style="63" customWidth="1"/>
+    <col min="2" max="6" width="23.77734375" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="57" t="s">
         <v>1675</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1329</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="64">
-        <v>8</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="60">
+        <v>8</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>1330</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="62"/>
+      <c r="F3" s="63" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -27432,17 +28465,17 @@
       <c r="A4" s="36" t="s">
         <v>1366</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="64">
-        <v>8</v>
-      </c>
-      <c r="D4" s="68" t="s">
+      <c r="B4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="60">
+        <v>8</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>1367</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -27450,107 +28483,107 @@
       <c r="A5" s="36" t="s">
         <v>1364</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="64">
-        <v>8</v>
-      </c>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="60">
+        <v>8</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>1365</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>1352</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="64">
-        <v>8</v>
-      </c>
-      <c r="D6" s="68" t="s">
+      <c r="B6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="60">
+        <v>8</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>1353</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>1370</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="64">
-        <v>8</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="60">
+        <v>8</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>1371</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>1346</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="64">
-        <v>8</v>
-      </c>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="60">
+        <v>8</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>1347</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>1334</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="64">
-        <v>8</v>
-      </c>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="60">
+        <v>8</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>1335</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="70" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>1350</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="64">
-        <v>8</v>
-      </c>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="60">
+        <v>8</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>1351</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -27558,107 +28591,107 @@
       <c r="A11" s="36" t="s">
         <v>1372</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="64">
-        <v>8</v>
-      </c>
-      <c r="D11" s="68" t="s">
+      <c r="B11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="60">
+        <v>8</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>1373</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>1354</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="64">
-        <v>8</v>
-      </c>
-      <c r="D12" s="68" t="s">
+      <c r="B12" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="60">
+        <v>8</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>1355</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>1368</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="64">
-        <v>8</v>
-      </c>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="60">
+        <v>8</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>1369</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>1344</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="64">
-        <v>8</v>
-      </c>
-      <c r="D14" s="68" t="s">
+      <c r="B14" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="60">
+        <v>8</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>1345</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>1380</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="64">
-        <v>8</v>
-      </c>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="60">
+        <v>8</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>1381</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>1378</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="64">
-        <v>8</v>
-      </c>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="60">
+        <v>8</v>
+      </c>
+      <c r="D16" s="64" t="s">
         <v>1379</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70" t="s">
+      <c r="E16" s="65"/>
+      <c r="F16" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -27666,253 +28699,253 @@
       <c r="A17" s="36" t="s">
         <v>1374</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="64">
-        <v>8</v>
-      </c>
-      <c r="D17" s="68" t="s">
+      <c r="B17" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="60">
+        <v>8</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>1375</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70" t="s">
+      <c r="E17" s="65"/>
+      <c r="F17" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>1356</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="64">
-        <v>8</v>
-      </c>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="60">
+        <v>8</v>
+      </c>
+      <c r="D18" s="66" t="s">
         <v>1357</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>1348</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="64">
-        <v>8</v>
-      </c>
-      <c r="D19" s="68" t="s">
+      <c r="B19" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="60">
+        <v>8</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>1349</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>1382</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="64">
-        <v>8</v>
-      </c>
-      <c r="D20" s="70" t="s">
+      <c r="B20" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="60">
+        <v>8</v>
+      </c>
+      <c r="D20" s="66" t="s">
         <v>1383</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>1376</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="64">
-        <v>8</v>
-      </c>
-      <c r="D21" s="68" t="s">
+      <c r="B21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="60">
+        <v>8</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>1377</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>1338</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="64">
-        <v>8</v>
-      </c>
-      <c r="D22" s="68" t="s">
+      <c r="B22" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="60">
+        <v>8</v>
+      </c>
+      <c r="D22" s="64" t="s">
         <v>1339</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70" t="s">
+      <c r="E22" s="65"/>
+      <c r="F22" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>1340</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="64">
-        <v>8</v>
-      </c>
-      <c r="D23" s="68" t="s">
+      <c r="B23" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="60">
+        <v>8</v>
+      </c>
+      <c r="D23" s="64" t="s">
         <v>1341</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70" t="s">
+      <c r="E23" s="65"/>
+      <c r="F23" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>1342</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="64">
-        <v>8</v>
-      </c>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="60">
+        <v>8</v>
+      </c>
+      <c r="D24" s="64" t="s">
         <v>1343</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70" t="s">
+      <c r="E24" s="65"/>
+      <c r="F24" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>1332</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="64">
-        <v>8</v>
-      </c>
-      <c r="D25" s="70" t="s">
+      <c r="B25" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="60">
+        <v>8</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>1333</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="67"/>
+      <c r="F25" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>1360</v>
       </c>
-      <c r="B26" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="64">
-        <v>8</v>
-      </c>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="60">
+        <v>8</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>1361</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70" t="s">
+      <c r="E26" s="65"/>
+      <c r="F26" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>1362</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="64">
-        <v>8</v>
-      </c>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="60">
+        <v>8</v>
+      </c>
+      <c r="D27" s="64" t="s">
         <v>1363</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70" t="s">
+      <c r="E27" s="65"/>
+      <c r="F27" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>1358</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="64">
-        <v>8</v>
-      </c>
-      <c r="D28" s="68" t="s">
+      <c r="B28" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="60">
+        <v>8</v>
+      </c>
+      <c r="D28" s="64" t="s">
         <v>1359</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>1336</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="64">
-        <v>8</v>
-      </c>
-      <c r="D29" s="68" t="s">
+      <c r="B29" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="60">
+        <v>8</v>
+      </c>
+      <c r="D29" s="64" t="s">
         <v>1337</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70" t="s">
+      <c r="E29" s="65"/>
+      <c r="F29" s="66" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="64">
-        <v>8</v>
-      </c>
-      <c r="D30" s="72" t="s">
+      <c r="B30" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="60">
+        <v>8</v>
+      </c>
+      <c r="D30" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="68" t="s">
         <v>117</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -27928,21 +28961,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>1605</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="64">
-        <v>8</v>
-      </c>
-      <c r="D31" s="70" t="s">
+      <c r="B31" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="60">
+        <v>8</v>
+      </c>
+      <c r="D31" s="66" t="s">
         <v>1606</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G31" s="5"/>
@@ -27950,21 +28983,21 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>1621</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="64">
-        <v>8</v>
-      </c>
-      <c r="D32" s="70" t="s">
+      <c r="B32" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="60">
+        <v>8</v>
+      </c>
+      <c r="D32" s="66" t="s">
         <v>1622</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70" t="s">
+      <c r="E32" s="65"/>
+      <c r="F32" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G32" s="5"/>
@@ -27972,21 +29005,21 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>1617</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="64">
-        <v>8</v>
-      </c>
-      <c r="D33" s="70" t="s">
+      <c r="B33" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="60">
+        <v>8</v>
+      </c>
+      <c r="D33" s="66" t="s">
         <v>1618</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70" t="s">
+      <c r="E33" s="65"/>
+      <c r="F33" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G33" s="5"/>
@@ -27994,21 +29027,21 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>1629</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="64">
-        <v>8</v>
-      </c>
-      <c r="D34" s="70" t="s">
+      <c r="B34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="60">
+        <v>8</v>
+      </c>
+      <c r="D34" s="66" t="s">
         <v>1630</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70" t="s">
+      <c r="E34" s="65"/>
+      <c r="F34" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G34" s="5"/>
@@ -28016,21 +29049,21 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>1633</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="64">
-        <v>8</v>
-      </c>
-      <c r="D35" s="70" t="s">
+      <c r="B35" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="60">
+        <v>8</v>
+      </c>
+      <c r="D35" s="66" t="s">
         <v>1634</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70" t="s">
+      <c r="E35" s="65"/>
+      <c r="F35" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G35" s="5"/>
@@ -28038,21 +29071,21 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>1625</v>
       </c>
-      <c r="B36" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="64">
-        <v>8</v>
-      </c>
-      <c r="D36" s="70" t="s">
+      <c r="B36" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="60">
+        <v>8</v>
+      </c>
+      <c r="D36" s="66" t="s">
         <v>1626</v>
       </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70" t="s">
+      <c r="E36" s="65"/>
+      <c r="F36" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G36" s="5"/>
@@ -28060,21 +29093,21 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>1609</v>
       </c>
-      <c r="B37" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="64">
-        <v>8</v>
-      </c>
-      <c r="D37" s="70" t="s">
+      <c r="B37" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="60">
+        <v>8</v>
+      </c>
+      <c r="D37" s="66" t="s">
         <v>1610</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70" t="s">
+      <c r="E37" s="65"/>
+      <c r="F37" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G37" s="5"/>
@@ -28082,21 +29115,21 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
         <v>1613</v>
       </c>
-      <c r="B38" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="64">
-        <v>8</v>
-      </c>
-      <c r="D38" s="70" t="s">
+      <c r="B38" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="60">
+        <v>8</v>
+      </c>
+      <c r="D38" s="66" t="s">
         <v>1614</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="66" t="s">
         <v>1386</v>
       </c>
       <c r="G38" s="5"/>
@@ -28104,21 +29137,21 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>1607</v>
       </c>
-      <c r="B39" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="64">
-        <v>8</v>
-      </c>
-      <c r="D39" s="70" t="s">
+      <c r="B39" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="60">
+        <v>8</v>
+      </c>
+      <c r="D39" s="66" t="s">
         <v>1608</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="68" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G39" s="5"/>
@@ -28126,21 +29159,21 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>1623</v>
       </c>
-      <c r="B40" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="64">
-        <v>8</v>
-      </c>
-      <c r="D40" s="70" t="s">
+      <c r="B40" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="60">
+        <v>8</v>
+      </c>
+      <c r="D40" s="66" t="s">
         <v>1624</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="68" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G40" s="5"/>
@@ -28148,21 +29181,21 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>1619</v>
       </c>
-      <c r="B41" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="64">
-        <v>8</v>
-      </c>
-      <c r="D41" s="70" t="s">
+      <c r="B41" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="60">
+        <v>8</v>
+      </c>
+      <c r="D41" s="66" t="s">
         <v>1620</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="68" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G41" s="5"/>
@@ -28170,21 +29203,21 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
         <v>1631</v>
       </c>
-      <c r="B42" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="64">
-        <v>8</v>
-      </c>
-      <c r="D42" s="70" t="s">
+      <c r="B42" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="60">
+        <v>8</v>
+      </c>
+      <c r="D42" s="66" t="s">
         <v>1632</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="68" t="s">
+      <c r="E42" s="65"/>
+      <c r="F42" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G42" s="5"/>
@@ -28192,21 +29225,21 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
         <v>1635</v>
       </c>
-      <c r="B43" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="64">
-        <v>8</v>
-      </c>
-      <c r="D43" s="70" t="s">
+      <c r="B43" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="60">
+        <v>8</v>
+      </c>
+      <c r="D43" s="66" t="s">
         <v>1636</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="68" t="s">
+      <c r="E43" s="65"/>
+      <c r="F43" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G43" s="5"/>
@@ -28214,21 +29247,21 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>1627</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="64">
-        <v>8</v>
-      </c>
-      <c r="D44" s="70" t="s">
+      <c r="B44" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="60">
+        <v>8</v>
+      </c>
+      <c r="D44" s="66" t="s">
         <v>1628</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="68" t="s">
+      <c r="E44" s="65"/>
+      <c r="F44" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G44" s="5"/>
@@ -28236,21 +29269,21 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>1611</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="64">
-        <v>8</v>
-      </c>
-      <c r="D45" s="70" t="s">
+      <c r="B45" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="60">
+        <v>8</v>
+      </c>
+      <c r="D45" s="66" t="s">
         <v>1612</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="68" t="s">
+      <c r="E45" s="65"/>
+      <c r="F45" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G45" s="5"/>
@@ -28258,21 +29291,21 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>1615</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="64">
-        <v>8</v>
-      </c>
-      <c r="D46" s="70" t="s">
+      <c r="B46" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="60">
+        <v>8</v>
+      </c>
+      <c r="D46" s="66" t="s">
         <v>1616</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="68" t="s">
+      <c r="E46" s="65"/>
+      <c r="F46" s="64" t="s">
         <v>1441</v>
       </c>
       <c r="G46" s="5"/>
@@ -28280,63 +29313,63 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="64">
-        <v>8</v>
-      </c>
-      <c r="D47" s="74" t="s">
+      <c r="B47" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="60">
+        <v>8</v>
+      </c>
+      <c r="D47" s="70" t="s">
         <v>1116</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="B48" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="64">
-        <v>8</v>
-      </c>
-      <c r="D48" s="74" t="s">
+      <c r="B48" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="60">
+        <v>8</v>
+      </c>
+      <c r="D48" s="70" t="s">
         <v>1118</v>
       </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="64">
-        <v>8</v>
-      </c>
-      <c r="D49" s="72" t="s">
+      <c r="B49" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="60">
+        <v>8</v>
+      </c>
+      <c r="D49" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="68" t="s">
         <v>117</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -28352,21 +29385,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="B50" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="64">
-        <v>8</v>
-      </c>
-      <c r="D50" s="74" t="s">
+      <c r="B50" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="60">
+        <v>8</v>
+      </c>
+      <c r="D50" s="70" t="s">
         <v>1112</v>
       </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="5" t="s">
         <v>44</v>
       </c>
@@ -28380,57 +29413,48 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="B51" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="64">
-        <v>8</v>
-      </c>
-      <c r="D51" s="74" t="s">
+      <c r="B51" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="60">
+        <v>8</v>
+      </c>
+      <c r="D51" s="70" t="s">
         <v>1120</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="77"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="B52" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="64">
-        <v>8</v>
-      </c>
-      <c r="D52" s="74" t="s">
+      <c r="B52" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="60">
+        <v>8</v>
+      </c>
+      <c r="D52" s="70" t="s">
         <v>1122</v>
       </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F52" xr:uid="{8F3EFD8D-FEB4-4AE6-B6C8-ECAF47626932}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="KWHAHUCOL"/>
-        <filter val="KWHAHUHEAT"/>
-        <filter val="KWHDHUM"/>
-        <filter val="KWHHUM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:F52" xr:uid="{8F3EFD8D-FEB4-4AE6-B6C8-ECAF47626932}"/>
   <conditionalFormatting sqref="A3:A29">
     <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
@@ -28450,12 +29474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A8C76-032C-4D26-8DDC-004E09AA9E5B}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28466,1362 +29490,1362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>1121</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="80" t="s">
         <v>1111</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="80" t="s">
         <v>1117</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="76" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>1115</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="77" t="s">
         <v>1615</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="76" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>1611</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="77" t="s">
         <v>1627</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="77" t="s">
         <v>1635</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="76" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="77" t="s">
         <v>1631</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="76" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="77" t="s">
         <v>1619</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="76" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="77" t="s">
         <v>1623</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="76" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="78" t="s">
         <v>1607</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="76" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>1613</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="76" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="78" t="s">
         <v>1609</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="76" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="77" t="s">
         <v>1625</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="76" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="77" t="s">
         <v>1633</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="76" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="77" t="s">
         <v>1629</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="76" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="77" t="s">
         <v>1617</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="76" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="77" t="s">
         <v>1621</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="76" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="78" t="s">
         <v>1605</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="76" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="77" t="s">
         <v>1336</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="76" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="77" t="s">
         <v>1358</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="76" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="77" t="s">
         <v>1362</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="76" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="77" t="s">
         <v>1360</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="76" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="78" t="s">
         <v>1332</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="76" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="77" t="s">
         <v>1342</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="76" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="77" t="s">
         <v>1340</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="76" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="77" t="s">
         <v>1338</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="76" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="77" t="s">
         <v>1376</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="76" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="77" t="s">
         <v>1382</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="76" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="77" t="s">
         <v>1348</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="76" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="77" t="s">
         <v>1356</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="76" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="77" t="s">
         <v>1374</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="76" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="77" t="s">
         <v>1378</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="76" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="77" t="s">
         <v>1380</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="76" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="77" t="s">
         <v>1344</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="76" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="77" t="s">
         <v>1368</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="76" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="77" t="s">
         <v>1354</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="76" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="77" t="s">
         <v>1372</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="76" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="77" t="s">
         <v>1350</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="76" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="77" t="s">
         <v>1334</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="76" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="77" t="s">
         <v>1346</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="76" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="76" t="s">
         <v>1370</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="76" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="76" t="s">
         <v>1352</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="76" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="76" t="s">
         <v>1364</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="76" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="76" t="s">
         <v>1366</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="76" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="76" t="s">
         <v>1329</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="76" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="76" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="76" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="76" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="76" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="76" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="76" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="76" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="76" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="80" t="s">
+      <c r="C58" s="76" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="76" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="76" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="76" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="76" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="76" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="76" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="76" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="76" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="76" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="76" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="76" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="76" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="76" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="76" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="76" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="76" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="76" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="76" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="76" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="76" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="76" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="76" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="76" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="76" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="76" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="76" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="76" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="76" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="76" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="76" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="76" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="76" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="76" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="76" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="76" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="76" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="76" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="80" t="s">
+      <c r="C96" s="76" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="76" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="76" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="76" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="80" t="s">
+      <c r="C100" s="76" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="80" t="s">
+      <c r="C101" s="76" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="80" t="s">
+      <c r="C102" s="76" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="76" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="76" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="80" t="s">
+      <c r="C105" s="76" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="80" t="s">
+      <c r="C106" s="76" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="76" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="80" t="s">
+      <c r="C108" s="76" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="76" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="80" t="s">
+      <c r="C110" s="76" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="80" t="s">
+      <c r="C111" s="76" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="80" t="s">
+      <c r="C112" s="76" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="76" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="76" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="80" t="s">
+      <c r="C115" s="76" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="76" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="80" t="s">
+      <c r="C117" s="76" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="80" t="s">
+      <c r="C118" s="76" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="80" t="s">
+      <c r="C119" s="76" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="80" t="s">
+      <c r="C120" s="76" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="80" t="s">
+      <c r="C121" s="76" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="76" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="80" t="s">
+      <c r="C123" s="76" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="80" t="s">
+      <c r="C124" s="76" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="80" t="s">
+      <c r="C125" s="76" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="80" t="s">
+      <c r="C126" s="76" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="80" t="s">
+      <c r="C127" s="76" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="80" t="s">
+      <c r="C128" s="76" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="80" t="s">
+      <c r="C129" s="76" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="76" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="80" t="s">
+      <c r="C131" s="76" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="80" t="s">
+      <c r="C132" s="76" t="s">
         <v>1595</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="80" t="s">
+      <c r="C133" s="76" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="80" t="s">
+      <c r="C134" s="76" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="80" t="s">
+      <c r="C135" s="76" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="80" t="s">
+      <c r="C136" s="76" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="80" t="s">
+      <c r="C137" s="76" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="80" t="s">
+      <c r="C138" s="76" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="80" t="s">
+      <c r="C139" s="76" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="80" t="s">
+      <c r="C140" s="76" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="80" t="s">
+      <c r="C141" s="76" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="76" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="80" t="s">
+      <c r="C143" s="76" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="76" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="80" t="s">
+      <c r="C145" s="76" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="76" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="80" t="s">
+      <c r="C147" s="76" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="76" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="80" t="s">
+      <c r="C149" s="76" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="80" t="s">
+      <c r="C150" s="76" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="80" t="s">
+      <c r="C151" s="76" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="80" t="s">
+      <c r="C152" s="76" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="80" t="s">
+      <c r="C153" s="76" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="76" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="80" t="s">
+      <c r="C155" s="76" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="80" t="s">
+      <c r="C156" s="76" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="80" t="s">
+      <c r="C157" s="76" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="80" t="s">
+      <c r="C158" s="76" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="76" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="80" t="s">
+      <c r="C160" s="76" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="80" t="s">
+      <c r="C161" s="76" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="80" t="s">
+      <c r="C162" s="76" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="80" t="s">
+      <c r="C163" s="76" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="80" t="s">
+      <c r="C164" s="76" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="80" t="s">
+      <c r="C165" s="76" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="80" t="s">
+      <c r="C166" s="76" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="80" t="s">
+      <c r="C167" s="76" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="80" t="s">
+      <c r="C168" s="76" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="80" t="s">
+      <c r="C169" s="76" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="80" t="s">
+      <c r="C170" s="76" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="80" t="s">
+      <c r="C171" s="76" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="80" t="s">
+      <c r="C172" s="76" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="80" t="s">
+      <c r="C173" s="76" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="80" t="s">
+      <c r="C174" s="76" t="s">
         <v>1599</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="80" t="s">
+      <c r="C175" s="76" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="80" t="s">
+      <c r="C176" s="76" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="80" t="s">
+      <c r="C177" s="76" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="80" t="s">
+      <c r="C178" s="76" t="s">
         <v>1719</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="80" t="s">
+      <c r="C179" s="76" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="80" t="s">
+      <c r="C180" s="76" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="80" t="s">
+      <c r="C181" s="76" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="80" t="s">
+      <c r="C182" s="76" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="80" t="s">
+      <c r="C183" s="76" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="80" t="s">
+      <c r="C184" s="76" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="80" t="s">
+      <c r="C185" s="76" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="80" t="s">
+      <c r="C186" s="76" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="80" t="s">
+      <c r="C187" s="76" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="80" t="s">
+      <c r="C188" s="76" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="80" t="s">
+      <c r="C189" s="76" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="80" t="s">
+      <c r="C190" s="76" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="80" t="s">
+      <c r="C191" s="76" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="80" t="s">
+      <c r="C192" s="76" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="80" t="s">
+      <c r="C193" s="76" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="80" t="s">
+      <c r="C194" s="76" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="80" t="s">
+      <c r="C195" s="76" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="80" t="s">
+      <c r="C196" s="76" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="80" t="s">
+      <c r="C197" s="76" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="80" t="s">
+      <c r="C198" s="76" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="80" t="s">
+      <c r="C199" s="76" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="80" t="s">
+      <c r="C200" s="76" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="80" t="s">
+      <c r="C201" s="76" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="80" t="s">
+      <c r="C202" s="76" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="80" t="s">
+      <c r="C203" s="76" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="80" t="s">
+      <c r="C204" s="76" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="80" t="s">
+      <c r="C205" s="76" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="80" t="s">
+      <c r="C206" s="76" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="80" t="s">
+      <c r="C207" s="76" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="80" t="s">
+      <c r="C208" s="76" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="80" t="s">
+      <c r="C209" s="76" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="80" t="s">
+      <c r="C210" s="76" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="76" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="80" t="s">
+      <c r="C212" s="76" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="80" t="s">
+      <c r="C213" s="76" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="80" t="s">
+      <c r="C214" s="76" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="80" t="s">
+      <c r="C215" s="76" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="76" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="80" t="s">
+      <c r="C217" s="76" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="80" t="s">
+      <c r="C218" s="76" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="80" t="s">
+      <c r="C219" s="76" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="80" t="s">
+      <c r="C220" s="76" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="80" t="s">
+      <c r="C221" s="76" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="80" t="s">
+      <c r="C222" s="76" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="80" t="s">
+      <c r="C223" s="76" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="80" t="s">
+      <c r="C224" s="76" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="80" t="s">
+      <c r="C225" s="76" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="80" t="s">
+      <c r="C226" s="76" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="80" t="s">
+      <c r="C227" s="76" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="80" t="s">
+      <c r="C228" s="76" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="80" t="s">
+      <c r="C229" s="76" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="80" t="s">
+      <c r="C230" s="76" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="80" t="s">
+      <c r="C231" s="76" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="76" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="80" t="s">
+      <c r="C233" s="76" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="80" t="s">
+      <c r="C234" s="76" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="80" t="s">
+      <c r="C235" s="76" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="80" t="s">
+      <c r="C236" s="76" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="80" t="s">
+      <c r="C237" s="76" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="80" t="s">
+      <c r="C238" s="76" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="80" t="s">
+      <c r="C239" s="76" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="80" t="s">
+      <c r="C240" s="76" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C241" s="80" t="s">
+      <c r="C241" s="76" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C242" s="79" t="s">
+      <c r="C242" s="75" t="s">
         <v>563</v>
       </c>
-      <c r="D242" s="79"/>
+      <c r="D242" s="75"/>
     </row>
   </sheetData>
   <sortState ref="A1:A49">
@@ -29842,4 +30866,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987047B3-4FEF-4F16-9B26-A106FC5D5CF6}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100001</v>
+      </c>
+      <c r="B2">
+        <v>2500</v>
+      </c>
+      <c r="C2">
+        <v>320</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100001</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100001</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100001</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>